--- a/hybridOfActiTimeProject/data/ActitimeTestData.xlsx
+++ b/hybridOfActiTimeProject/data/ActitimeTestData.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17370" windowHeight="4065"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="16305" windowHeight="5685" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="validcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="mgr" sheetId="3" r:id="rId3"/>
+    <sheet name="customerandprojectlist" sheetId="4" r:id="rId4"/>
+    <sheet name="mgrlogin" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:Q12"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -54,12 +56,54 @@
   <si>
     <t>mnh</t>
   </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Test_engg1</t>
+  </si>
+  <si>
+    <t>developer</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>ICICIBANK</t>
+  </si>
+  <si>
+    <t>WebApplication</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +140,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,6 +223,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -383,16 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -408,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -416,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -424,12 +475,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -437,12 +488,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -456,25 +507,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>